--- a/xlsx/哈茨菲尔德－杰克逊亚特兰大国际机场_intext.xlsx
+++ b/xlsx/哈茨菲尔德－杰克逊亚特兰大国际机场_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
   <si>
     <t>哈茨菲尔德－杰克逊亚特兰大国际机场</t>
   </si>
@@ -29,13 +29,13 @@
     <t>国际航空运输协会机场代码</t>
   </si>
   <si>
-    <t>政策_政策_美國_哈茨菲尔德－杰克逊亚特兰大国际机场</t>
+    <t>政策_政策_美国_哈茨菲尔德－杰克逊亚特兰大国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B0%91%E8%88%AA%E7%B5%84%E7%B9%94%E6%A9%9F%E5%A0%B4%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際民航組織機場代碼</t>
+    <t>国际民航组织机场代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E7%BA%AC%E5%BA%A6</t>
@@ -65,49 +65,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7</t>
   </si>
   <si>
-    <t>亞特蘭大</t>
+    <t>亚特兰大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E8%BF%BA%E8%BF%AA%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>甘迺迪國際機場</t>
+    <t>甘迺迪国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E7%88%BE%E9%A0%93%E7%B8%A3_(%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>富爾頓縣 (喬治亞州)</t>
+    <t>富尔顿县 (乔治亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E9%A0%93%E7%B8%A3_(%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克萊頓縣 (喬治亞州)</t>
+    <t>克莱顿县 (乔治亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>非建制地區</t>
+    <t>非建制地区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/College_Park,_Georgia</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>達美航空</t>
+    <t>达美航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BF%E8%B6%8A%E8%88%AA%E7%A9%BA</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%88%AA%E7%A9%BA%E9%81%8B%E8%BC%B8%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國際航空運輸協會</t>
+    <t>国际航空运输协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B0%91%E8%88%AA%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際民航組織</t>
+    <t>国际民航组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A8%8B</t>
@@ -161,9 +161,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>达美航空</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>夏洛特道格拉斯國際機場</t>
+    <t>夏洛特道格拉斯国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E4%B8%AD%E9%80%94%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E5%A4%AB%E8%98%AD%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>克利夫蘭霍普金斯國際機場</t>
+    <t>克利夫兰霍普金斯国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B3%89%E6%9C%BA%E5%9C%BA</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%88%BE%E6%9C%AC%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>墨爾本國際機場</t>
+    <t>墨尔本国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>諾福克國際機場</t>
+    <t>诺福克国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%88%A9%E9%81%94%E6%8B%89%E5%A7%86%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>羅利達拉姆國際機場</t>
+    <t>罗利达拉姆国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A3%AB%E6%BB%A1%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>聖安東尼奧國際機場</t>
+    <t>圣安东尼奥国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%BF%AD%E6%88%88%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>坦帕國際機場</t>
+    <t>坦帕国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%B0%94%E8%90%A8%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -605,19 +602,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%A9%AD%E7%89%B9%E9%BA%97%E5%85%8B%E7%B5%B2%E5%A5%B3%E7%8E%8B%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>貝婭特麗克絲女王國際機場</t>
+    <t>贝娅特丽克丝女王国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E5%A5%87%E6%95%A6%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>布里奇敦國際機場</t>
+    <t>布里奇敦国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E9%81%94%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>百慕達國際機場</t>
+    <t>百慕达国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E5%A4%9A%E6%8B%89%E5%A4%9A%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E6%98%86%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>坎昆國際機場</t>
+    <t>坎昆国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%85%8B%E8%92%82%E4%BA%9A%E8%A5%BF%E8%92%99%C2%B7%E7%8E%BB%E5%88%A9%E7%93%A6%E5%B0%94%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%BA%AB%E9%96%80%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>托庫門國際機場</t>
+    <t>托库门国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%A4%8F%E5%B0%94%C2%B7%E6%88%B4%E9%AB%98%E4%B9%90%E6%9C%BA%E5%9C%BA</t>
@@ -755,19 +752,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%BE%85%E7%B6%AD%E7%99%BB%E8%A5%BF%E4%BA%9E%E8%90%8A%E6%96%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>普羅維登西亞萊斯國際機場</t>
+    <t>普罗维登西亚莱斯国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%85%8B%E9%9B%B7%E5%85%83%E5%B8%A5%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>蘇克雷元帥國際機場</t>
+    <t>苏克雷元帅国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC-%E8%8F%B2%E7%83%8F%E7%B1%B3%E5%A5%87%E8%AB%BE%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>羅馬-菲烏米奇諾機場</t>
+    <t>罗马-菲乌米奇诺机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E4%B8%BD%E5%AE%89%E5%A8%9C%E5%85%AC%E4%B8%BB%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -815,13 +812,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E6%B5%A6%E6%9D%B1%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>上海浦東國際機場</t>
+    <t>上海浦东国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E4%BC%AF%E5%BE%B7%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>維爾伯德國際機場</t>
+    <t>维尔伯德国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97%E6%9C%BA%E5%9C%BA</t>
@@ -899,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9F%8E%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>大西洋城國際機場</t>
+    <t>大西洋城国际机场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Trenton%E2%80%93Mercer_Airport</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%BE%B7-%E9%9B%85%E7%9A%AE%E7%89%B9%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>彭德-雅皮特國際機場</t>
+    <t>彭德-雅皮特国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%8E%8E%E8%88%AA%E7%A9%BA</t>
@@ -995,15 +992,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>夏洛特/道格拉斯國際機場</t>
+    <t>夏洛特/道格拉斯国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E4%BA%9E%E5%AF%86%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>邁亞密國際機場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%BE%B7%E4%BB%A3%E5%B0%94%E5%A0%A1-%E5%A5%BD%E8%8E%B1%E5%9D%9E%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
   </si>
   <si>
@@ -1013,19 +1007,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%9C%8B%E5%AE%B6%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>雷根華盛頓國家機場</t>
+    <t>雷根华盛顿国家机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E5%A0%A4/%E5%8C%97%E8%82%AF%E5%A1%94%E5%9F%BA%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>辛辛那堤/北肯塔基國際機場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%88%A9%E9%83%BD%E6%9E%97%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>萊利都林國際機場</t>
+    <t>莱利都林国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E5%B8%83%E6%B8%AF%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -1037,13 +1028,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A5%A7%E9%BB%91%E7%88%BE%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>芝加哥奧黑爾國際機場</t>
+    <t>芝加哥奥黑尔国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E8%BF%BA%E8%BF%AA%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>甘迺迪機場</t>
+    <t>甘迺迪机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1061,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A9%9F%E5%A0%B4%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國機場列表</t>
+    <t>美国机场列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E5%8A%B3%E4%BC%A6%E6%96%AF%C2%B7%E6%B4%9B%E6%A0%B9%E5%B0%86%E5%86%9B%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -1085,27 +1076,18 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>丹佛國際機場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E4%BA%95%E4%B8%8A%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>丹尼爾·井上國際機場</t>
+    <t>丹尼尔·井上国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E5%B8%83%E4%BB%80%E6%B4%B2%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>喬治·布什洲際機場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>洛杉磯國際機場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E9%98%BF%E5%AF%86%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
   </si>
   <si>
@@ -1121,27 +1103,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8F%AF%E5%85%8B%E8%87%AA%E7%94%B1%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>紐華克自由國際機場</t>
+    <t>纽华克自由国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>約翰·甘迺迪國際機場</t>
+    <t>约翰·甘迺迪国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%93%9C%E5%9C%B0%E4%BA%9E%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>拉瓜地亞機場</t>
+    <t>拉瓜地亚机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>費城國際機場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%B0%BC%E5%85%8B%E6%96%AF%E5%A4%A9%E6%B8%AF%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
   </si>
   <si>
@@ -1151,19 +1130,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>聖地牙哥國際機場</t>
+    <t>圣地牙哥国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>舊金山國際機場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96-%E5%A1%94%E7%A7%91%E9%A6%AC%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>西雅圖-塔科馬國際機場</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8C%A8%E8%8F%B2%E5%B0%94%E5%BE%B7-%E6%9D%B0%E5%85%8B%E9%80%8A%E4%BA%9A%E7%89%B9%E5%85%B0%E5%A4%A7%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -2297,7 +2270,7 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G27" t="n">
         <v>5</v>
@@ -2323,10 +2296,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
         <v>49</v>
-      </c>
-      <c r="F28" t="s">
-        <v>50</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -2352,10 +2325,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
         <v>51</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -2381,10 +2354,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
         <v>53</v>
-      </c>
-      <c r="F30" t="s">
-        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -2410,10 +2383,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -2439,10 +2412,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2468,10 +2441,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2497,10 +2470,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
         <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2526,10 +2499,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2555,10 +2528,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2584,10 +2557,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
         <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -2613,10 +2586,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>4</v>
@@ -2642,10 +2615,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
         <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2671,10 +2644,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -2700,10 +2673,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -2729,10 +2702,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
         <v>77</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2758,10 +2731,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -2787,10 +2760,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -2816,10 +2789,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>83</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2845,10 +2818,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
-      </c>
-      <c r="F46" t="s">
-        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2874,10 +2847,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2903,10 +2876,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -2932,10 +2905,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>7</v>
@@ -2961,10 +2934,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>5</v>
@@ -2990,10 +2963,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>4</v>
@@ -3019,10 +2992,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3048,10 +3021,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3077,10 +3050,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3106,10 +3079,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
@@ -3135,10 +3108,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3164,10 +3137,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3193,10 +3166,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>5</v>
@@ -3222,10 +3195,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3251,10 +3224,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>5</v>
@@ -3280,10 +3253,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3309,10 +3282,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3338,10 +3311,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3367,10 +3340,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -3396,10 +3369,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -3425,10 +3398,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3454,10 +3427,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -3483,10 +3456,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3512,10 +3485,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -3541,10 +3514,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3570,10 +3543,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3599,10 +3572,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3628,10 +3601,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3657,10 +3630,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -3686,10 +3659,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -3715,10 +3688,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -3744,10 +3717,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3773,10 +3746,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3802,10 +3775,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3831,10 +3804,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3860,10 +3833,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3889,10 +3862,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3918,10 +3891,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -3947,10 +3920,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -3976,10 +3949,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4005,10 +3978,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4034,10 +4007,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -4063,10 +4036,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -4092,10 +4065,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4121,10 +4094,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -4150,10 +4123,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4179,10 +4152,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>5</v>
@@ -4208,10 +4181,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4237,10 +4210,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -4266,10 +4239,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -4295,10 +4268,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4324,10 +4297,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4353,10 +4326,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4382,10 +4355,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4411,10 +4384,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4440,10 +4413,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4469,10 +4442,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4498,10 +4471,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4527,10 +4500,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4556,10 +4529,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4585,10 +4558,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4614,10 +4587,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4643,10 +4616,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4672,10 +4645,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4701,10 +4674,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4730,10 +4703,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4759,10 +4732,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4788,10 +4761,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4817,10 +4790,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4846,10 +4819,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4875,10 +4848,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4904,10 +4877,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -4933,10 +4906,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4962,10 +4935,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4991,10 +4964,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5020,10 +4993,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5049,10 +5022,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5078,10 +5051,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5107,10 +5080,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5136,10 +5109,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5165,10 +5138,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5194,10 +5167,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5223,10 +5196,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5252,10 +5225,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5281,10 +5254,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5310,10 +5283,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5339,10 +5312,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5368,10 +5341,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5397,10 +5370,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -5426,10 +5399,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5455,10 +5428,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5484,10 +5457,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5513,10 +5486,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5542,10 +5515,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5571,10 +5544,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5600,10 +5573,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
         <v>275</v>
-      </c>
-      <c r="F141" t="s">
-        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5629,10 +5602,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="s">
         <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5658,10 +5631,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" t="s">
         <v>279</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5687,10 +5660,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F144" t="s">
         <v>281</v>
-      </c>
-      <c r="F144" t="s">
-        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5716,10 +5689,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
         <v>283</v>
-      </c>
-      <c r="F145" t="s">
-        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5745,10 +5718,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
         <v>285</v>
-      </c>
-      <c r="F146" t="s">
-        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5774,10 +5747,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5803,10 +5776,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5832,10 +5805,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5861,10 +5834,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5890,10 +5863,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5919,10 +5892,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5948,10 +5921,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5977,10 +5950,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6006,10 +5979,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6035,10 +6008,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6064,10 +6037,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6093,10 +6066,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6122,10 +6095,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6151,10 +6124,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6180,10 +6153,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6209,10 +6182,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6238,10 +6211,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6267,10 +6240,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6296,10 +6269,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6325,10 +6298,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>78</v>
+      </c>
+      <c r="F166" t="s">
         <v>79</v>
-      </c>
-      <c r="F166" t="s">
-        <v>80</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6354,10 +6327,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>324</v>
+      </c>
+      <c r="F167" t="s">
         <v>325</v>
-      </c>
-      <c r="F167" t="s">
-        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6383,10 +6356,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>121</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6412,10 +6385,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>140</v>
+      </c>
+      <c r="F169" t="s">
         <v>141</v>
-      </c>
-      <c r="F169" t="s">
-        <v>142</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6441,10 +6414,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>92</v>
+      </c>
+      <c r="F170" t="s">
         <v>93</v>
-      </c>
-      <c r="F170" t="s">
-        <v>94</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6470,10 +6443,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>180</v>
+      </c>
+      <c r="F171" t="s">
         <v>181</v>
-      </c>
-      <c r="F171" t="s">
-        <v>182</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6499,10 +6472,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6528,10 +6501,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>68</v>
+      </c>
+      <c r="F173" t="s">
         <v>69</v>
-      </c>
-      <c r="F173" t="s">
-        <v>70</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6557,10 +6530,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6586,10 +6559,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>76</v>
+      </c>
+      <c r="F175" t="s">
         <v>77</v>
-      </c>
-      <c r="F175" t="s">
-        <v>78</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -6615,10 +6588,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>176</v>
+      </c>
+      <c r="F176" t="s">
         <v>177</v>
-      </c>
-      <c r="F176" t="s">
-        <v>178</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -6644,10 +6617,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>158</v>
+      </c>
+      <c r="F177" t="s">
         <v>159</v>
-      </c>
-      <c r="F177" t="s">
-        <v>160</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6673,10 +6646,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F178" t="s">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6702,10 +6675,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>118</v>
+      </c>
+      <c r="F179" t="s">
         <v>119</v>
-      </c>
-      <c r="F179" t="s">
-        <v>120</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6731,10 +6704,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>82</v>
+      </c>
+      <c r="F180" t="s">
         <v>83</v>
-      </c>
-      <c r="F180" t="s">
-        <v>84</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6760,10 +6733,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F181" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6789,10 +6762,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>124</v>
+      </c>
+      <c r="F182" t="s">
         <v>125</v>
-      </c>
-      <c r="F182" t="s">
-        <v>126</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6818,10 +6791,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>146</v>
+      </c>
+      <c r="F183" t="s">
         <v>147</v>
-      </c>
-      <c r="F183" t="s">
-        <v>148</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6847,10 +6820,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>104</v>
+      </c>
+      <c r="F184" t="s">
         <v>105</v>
-      </c>
-      <c r="F184" t="s">
-        <v>106</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6876,10 +6849,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F185" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6905,10 +6878,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>106</v>
+      </c>
+      <c r="F186" t="s">
         <v>107</v>
-      </c>
-      <c r="F186" t="s">
-        <v>108</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6934,10 +6907,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>114</v>
+      </c>
+      <c r="F187" t="s">
         <v>115</v>
-      </c>
-      <c r="F187" t="s">
-        <v>116</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6963,10 +6936,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>70</v>
+      </c>
+      <c r="F188" t="s">
         <v>71</v>
-      </c>
-      <c r="F188" t="s">
-        <v>72</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6992,10 +6965,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F189" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7021,10 +6994,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F190" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7050,10 +7023,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F191" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7079,10 +7052,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F192" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -7108,10 +7081,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F193" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7137,10 +7110,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>68</v>
+      </c>
+      <c r="F194" t="s">
         <v>69</v>
-      </c>
-      <c r="F194" t="s">
-        <v>70</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7166,10 +7139,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F195" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7195,10 +7168,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>74</v>
+      </c>
+      <c r="F196" t="s">
         <v>75</v>
-      </c>
-      <c r="F196" t="s">
-        <v>76</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7224,10 +7197,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F197" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7253,10 +7226,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>78</v>
+      </c>
+      <c r="F198" t="s">
         <v>79</v>
-      </c>
-      <c r="F198" t="s">
-        <v>80</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7282,10 +7255,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F199" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7311,10 +7284,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F200" t="s">
-        <v>356</v>
+        <v>91</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7340,10 +7313,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>92</v>
+      </c>
+      <c r="F201" t="s">
         <v>93</v>
-      </c>
-      <c r="F201" t="s">
-        <v>94</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7369,10 +7342,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F202" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7398,10 +7371,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F203" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7427,10 +7400,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F204" t="s">
-        <v>360</v>
+        <v>103</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7456,10 +7429,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>108</v>
+      </c>
+      <c r="F205" t="s">
         <v>109</v>
-      </c>
-      <c r="F205" t="s">
-        <v>110</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7485,10 +7458,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F206" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7514,10 +7487,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F207" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7543,10 +7516,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F208" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7572,10 +7545,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F209" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7601,10 +7574,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F210" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7630,10 +7603,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F211" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7659,10 +7632,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>140</v>
+      </c>
+      <c r="F212" t="s">
         <v>141</v>
-      </c>
-      <c r="F212" t="s">
-        <v>142</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7688,10 +7661,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F213" t="s">
-        <v>374</v>
+        <v>143</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7717,10 +7690,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F214" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7746,10 +7719,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>160</v>
+      </c>
+      <c r="F215" t="s">
         <v>161</v>
-      </c>
-      <c r="F215" t="s">
-        <v>162</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7775,10 +7748,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F216" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7804,10 +7777,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F217" t="s">
-        <v>380</v>
+        <v>167</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7833,10 +7806,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F218" t="s">
-        <v>382</v>
+        <v>173</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7862,10 +7835,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>176</v>
+      </c>
+      <c r="F219" t="s">
         <v>177</v>
-      </c>
-      <c r="F219" t="s">
-        <v>178</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -7891,10 +7864,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>182</v>
+      </c>
+      <c r="F220" t="s">
         <v>183</v>
-      </c>
-      <c r="F220" t="s">
-        <v>184</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -7920,10 +7893,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>180</v>
+      </c>
+      <c r="F221" t="s">
         <v>181</v>
-      </c>
-      <c r="F221" t="s">
-        <v>182</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -7949,10 +7922,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F222" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -7978,10 +7951,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F223" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
